--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/assassinate/5/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/assassinate/5/LocalizationDef.xlsx
@@ -1324,7 +1324,9 @@
     <t>Assassinate_TheGeneral_NEW.shortDescription</t>
   </si>
   <si>
-    <t>We've had confirmation from several sources that a high ranking {TEAM_TAR.FactionDef.Name} officer is moving in the open. This is a rare opportunity to disrupt their command structure on {TGT_SYSTEM.name}. We'll pay a 33% bonus per lance if you can also destroy his personal guard and any other {TEAM_TAR.FactionDef.Name} in the AO.</t>
+    <t xml:space="preserve">We've had confirmation from several sources that a high ranking {TEAM_TAR.FactionDef.Name} officer is moving in the open. This is a rare opportunity to disrupt their command structure on {TGT_SYSTEM.name}. We'll pay a 33% bonus per lance if you can also destroy his personal guard and any other {TEAM_TAR.FactionDef.Name} in the AO.
+---
+We've had confirmation from several sources that a high ranking {TEAM_TAR.FactionDef.Name} officer is moving in the open. This is a rare opportunity to disrupt their command structure on {TGT_SYSTEM.name}. We'll pay a 20% bonus per lance if you can also destroy his personal guard.</t>
   </si>
   <si>
     <t xml:space="preserve">У нас есть подтверждение из нескольких источников, что разыскиваемый нами высокопоставленный офицер {TEAM_TAR.FactionDef.Name} сейчас движется в открытую. Это редкая возможность нарушить структуру их командования на {TGT_SYSTEM.name}. Мы выплатим бонус 33% за каждый отряд  врага, если вы уничтожите его личную охрану и любые другие силы {TEAM_TAR.FactionDef.Name} в зоне операции.</t>
@@ -1745,12 +1747,17 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000" tint="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1765,7 +1772,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
@@ -1784,6 +1792,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2091,3291 +2109,3291 @@
   <dimension ref="A1:C298"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1" style="1"/>
-    <col min="2" max="2" width="110.42578125" customWidth="1" style="2"/>
-    <col min="3" max="3" width="100.42578125" customWidth="1" style="3"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1" style="2"/>
+    <col min="2" max="2" width="110.42578125" customWidth="1" style="3"/>
+    <col min="3" max="3" width="100.42578125" customWidth="1" style="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="4" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="4" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="5" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="6" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="5" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="6" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="6" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="4" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="5" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="6" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="4" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="6" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="5" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="4" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C183" s="6" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="5" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="4" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="4" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" s="5" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="6" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C190" s="6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="6" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C198" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="4" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="4" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C208" s="6" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" s="5" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" s="5" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C211" s="5" t="s">
+      <c r="C211" s="6" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C212" s="5" t="s">
+      <c r="C212" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C213" s="4" t="s">
+      <c r="C213" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C214" s="5" t="s">
+      <c r="C214" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="4" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C216" s="5" t="s">
+      <c r="C216" s="6" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C217" s="6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="4" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C220" s="5" t="s">
+      <c r="C220" s="6" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="4" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="4" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="s">
+    <row r="231" s="9" customFormat="1">
+      <c r="A231" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="C231" s="4" t="s">
+      <c r="C231" s="12" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" s="5" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C233" s="5" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C234" s="8" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="4" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="C236" s="5" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="C237" s="5" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="5" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="C240" s="6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C243" s="5" t="s">
+      <c r="C243" s="6" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="4" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="4" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="4" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C253" s="5" t="s">
+      <c r="C253" s="6" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C254" s="5" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="4" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="C256" s="5" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="C257" s="5" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="4" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="C259" s="5" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C260" s="5" t="s">
+      <c r="C260" s="6" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C262" s="5" t="s">
+      <c r="C262" s="6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C264" s="5" t="s">
+      <c r="C264" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C265" s="4" t="s">
+      <c r="C265" s="5" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="4" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C268" s="5" t="s">
+      <c r="C268" s="6" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="4" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C276" s="5" t="s">
+      <c r="C276" s="6" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C277" s="4" t="s">
+      <c r="C277" s="5" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C278" s="4" t="s">
+      <c r="C278" s="5" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C279" s="4" t="s">
+      <c r="C279" s="5" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="C280" s="4" t="s">
+      <c r="C280" s="5" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C281" s="5" t="s">
+      <c r="C281" s="6" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="4" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C283" s="5" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C285" s="5" t="s">
+      <c r="C285" s="6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C288" s="5" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="4" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C290" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C291" s="4" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C292" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C293" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C294" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B295" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C295" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C296" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C297" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B298" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C298" s="5" t="s">
+      <c r="C298" s="6" t="s">
         <v>569</v>
       </c>
     </row>
